--- a/spreadsheet/macrofree/servicebus_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/servicebus_checklist.ja.xlsx
@@ -1983,12 +1983,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、アプリケーションでマネージド ID を使用して Azure Service Bus に対する認証を行う必要があります。そうでない場合は、ストレージ資格情報 (SAS、サービス プリンシパル資格情報) を Azure Key Vault または同等のサービスに持つことを検討してください</t>
+          <t>可能な場合は、SAS キー認証 (またはローカル認証) を無効にし、認証には Microsoft Entra ID のみを使用します</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Azure App Service アプリケーション内、または Azure リソースのサポートに対して有効なマネージド エンティティを持つ仮想マシンで実行されている Service Bus クライアント アプリは、SAS のルールとキー、またはその他のアクセス トークンを処理する必要はありません。クライアント アプリに必要なのは、Service Bus メッセージング名前空間のエンドポイント アドレスのみです。</t>
+          <t>Microsoft Entra ID は、Shared Access Signature (SAS) よりも優れたセキュリティと使いやすさを提供します。Microsoft Entra ID を使用すると、トークンをコードに格納する必要がなく、潜在的なセキュリティの脆弱性のリスクを冒す必要はありません。可能な場合は、Azure Service Bus アプリケーションで Microsoft Entra ID を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2004,7 +2004,7 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-bus-messaging/service-bus-managed-service-identity</t>
+          <t>https://learn.microsoft.com/en-us/azure/service-bus-messaging/disable-local-authentication</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
